--- a/biology/Médecine/Dystrophie_musculaire_des_ceintures_(Type_2A)/Dystrophie_musculaire_des_ceintures_(Type_2A).xlsx
+++ b/biology/Médecine/Dystrophie_musculaire_des_ceintures_(Type_2A)/Dystrophie_musculaire_des_ceintures_(Type_2A).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dystrophie musculaire des ceintures (Type 2A) se caractérise par une faiblesse musculaire progressive et symétrique des muscles des ceintures humérales et pelviennes. Le début de la maladie survient entre deux et quarante ans. Il existe une grande variabilité de la maladie même dans une même famille.
 Il existe trois sous types en fonction des muscles atteints et le début des signes.
@@ -513,7 +525,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dystrophie musculaire type Erb
 Calpaïnopathie
@@ -545,7 +559,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène CAPN3 (en) 114240 situé sur le locus q15.1-q21.1 du chromosome 15 codant l'enzyme protéolytique calpaïne 3.
 </t>
@@ -576,7 +592,9 @@
           <t>Incidence &amp; Prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La calpaïnopathie est la plus fréquente des dystrophies musculaires des ceintures représentant environ 40 % de cette pathologie. Mais il existe de grandes variations géographiques. La prévalence en Italie du Nord est de 1 personne malade pour 100 000 habitants.
 </t>
@@ -609,13 +627,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénotype Leyden-Möbius
-Le plus fréquent. Implication importante des muscles pelviens. Survient à tout âge. Évolution rapide.
+          <t>Phénotype Leyden-Möbius</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus fréquent. Implication importante des muscles pelviens. Survient à tout âge. Évolution rapide.
 De Ernst von Leyden  (1832-1910) et de Paul Julius Möbius (1853-1907), médecins allemands.
-Phénotype ceinture humérale
-Survient plus tardivement et l'atteinte est moins grave surtout au niveau des muscles pelviens.
-Concentration en créatine kinase
-Représenterait une étape présymptomatique de la maladie.
 </t>
         </is>
       </c>
@@ -641,24 +660,240 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phénotype ceinture humérale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Survient plus tardivement et l'atteinte est moins grave surtout au niveau des muscles pelviens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Concentration en créatine kinase</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Représenterait une étape présymptomatique de la maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le diagnostic de la LGMD 2A peut se faire par le biais d'une prise de sang.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic de la LGMD 2A peut se faire par le biais d'une prise de sang.
 Il utilise des techniques de PCR et de DHPLC (denaturing high pressure liquid chromatography). L'ensemble des exons codants de CAPN3 et de leurs bornes introniques sont criblés par DHPLC, technique de détection des mutations sensible à plus de 95 %.
 Les fragments présentant un profil de type hétéroduplex sont ensuite analysés par séquençage direct pour identifier la mutation.
 Une IRM et une biopsie peuvent aider au diagnostic. En effet, les muscles de patients atteints de cette maladie montrent un profil de nécrose-régénération caractéristique.
-Biologie
-La concentration en créatine kinase est de ( à 80 fois plus élevée que la normale. Elle est maximale durant l'enfance et décroît avec l'âge.
-Imagerie
-L'imagerie par scanner ou par résonance magnétique nucléaire est un élément important pour faire le diagnostic différentiel avec les autres dystrophies musculaires des ceintures et précise les muscles impliqués.
-Biopsie musculaire
-La biopsie musculaire montre soit des lésions typiques d'un processus dystrophique soit des lésions moins spécifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La concentration en créatine kinase est de ( à 80 fois plus élevée que la normale. Elle est maximale durant l'enfance et décroît avec l'âge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Imagerie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imagerie par scanner ou par résonance magnétique nucléaire est un élément important pour faire le diagnostic différentiel avec les autres dystrophies musculaires des ceintures et précise les muscles impliqués.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biopsie musculaire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biopsie musculaire montre soit des lésions typiques d'un processus dystrophique soit des lésions moins spécifiques.
 Le dosage de la concentration en calpaine musculaire est l'examen le plus important pour le diagnostic mais l'interprétation du résultat nécessite une connaissance claire des limites de l'examen.
-Génétique
-Le gène CAPN3 humain comporte 2466 paires de bases, réparties en 24 exons. Il code la calpaïne 3 ou p94 (ainsi appelé car son poids moléculaire est de 94kDa).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le gène CAPN3 humain comporte 2466 paires de bases, réparties en 24 exons. Il code la calpaïne 3 ou p94 (ainsi appelé car son poids moléculaire est de 94kDa).
 Les mutations du gène CAPN3 menant à la LGMD2A sont nombreuses (une centaine), mais certaines sont plus fréquentes que d'autres, comme la 550delA (le 550e acide nucléique, qui est un A, est supprimé). Ces mutations sont réparties en plusieurs types :
 mutations missense : une base est modifiée dans le gène, ce qui modifie la séquence en acides aminés de la protéine ;
 mutations nonsens : une base est modifiée, provoquant l'apparition d'un codon stop, la calpaïne synthétisée est alors plus courte ;
@@ -668,31 +903,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Les autres formes de dystrophie musculaire des ceintures
 Dystrophie facio scapulo humérale de Landouzy-Dejerine
@@ -701,65 +938,69 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pathologie est de transmission autosomique récessive.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_musculaire_des_ceintures_(Type_2A)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 253600[1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 253600
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
